--- a/JSUB999999_jga_metadata.xlsx
+++ b/JSUB999999_jga_metadata.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998A7706-16BA-40BA-A37E-B1AB56A1FE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20088" windowHeight="8940" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -4431,7 +4432,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4586,18 +4587,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4606,23 +4604,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4637,7 +4624,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4757,6 +4743,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4792,6 +4795,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4967,102 +4987,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="126.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A3" s="6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A4" s="6" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A5" s="6" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A6" s="14" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="23"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="24"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="25"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A18" s="17"/>
       <c r="B18" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5070,123 +5088,123 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="9">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A25" s="7">
         <v>44678</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="7">
         <v>42285</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="7">
         <v>42429</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="7">
         <v>42430</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="7">
         <v>42486</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="7">
         <v>42760</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="7">
         <v>42935</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <v>42935</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="7">
         <v>43227</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="7">
         <v>44103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="7">
         <v>44622</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A38" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="7">
         <v>44678</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
@@ -5199,84 +5217,83 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="70" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.6">
+      <c r="A1" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="22" t="s">
         <v>795</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="22" t="s">
         <v>796</v>
       </c>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5316,7 +5333,7 @@
       <c r="M2" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="12" t="s">
         <v>608</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -5326,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
@@ -5366,14 +5383,14 @@
       <c r="M3" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="12" t="s">
         <v>609</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>229</v>
       </c>
@@ -5404,11 +5421,11 @@
       <c r="L4" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="12" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>230</v>
       </c>
@@ -5439,11 +5456,11 @@
       <c r="L5" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="12" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
@@ -5471,11 +5488,11 @@
       <c r="L6" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="12" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>232</v>
       </c>
@@ -5503,11 +5520,11 @@
       <c r="L7" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="12" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>233</v>
       </c>
@@ -5535,11 +5552,11 @@
       <c r="L8" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="12" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>234</v>
       </c>
@@ -5564,11 +5581,11 @@
       <c r="L9" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="12" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>235</v>
       </c>
@@ -5593,11 +5610,11 @@
       <c r="L10" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="12" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>236</v>
       </c>
@@ -5622,11 +5639,11 @@
       <c r="L11" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="12" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>237</v>
       </c>
@@ -5651,11 +5668,11 @@
       <c r="L12" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="12" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>238</v>
       </c>
@@ -5680,11 +5697,11 @@
       <c r="L13" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="12" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>239</v>
       </c>
@@ -5709,11 +5726,11 @@
       <c r="L14" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="12" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>240</v>
       </c>
@@ -5735,11 +5752,11 @@
       <c r="L15" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="12" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
@@ -5758,11 +5775,11 @@
       <c r="L16" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="12" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>242</v>
       </c>
@@ -5778,11 +5795,11 @@
       <c r="K17" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="12" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B18" s="1" t="s">
         <v>718</v>
       </c>
@@ -5795,11 +5812,11 @@
       <c r="K18" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="12" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B19" s="1" t="s">
         <v>257</v>
       </c>
@@ -5812,11 +5829,11 @@
       <c r="K19" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="12" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B20" s="1" t="s">
         <v>740</v>
       </c>
@@ -5829,11 +5846,11 @@
       <c r="K20" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="12" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B21" s="1" t="s">
         <v>741</v>
       </c>
@@ -5846,11 +5863,11 @@
       <c r="K21" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="12" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B22" s="1" t="s">
         <v>654</v>
       </c>
@@ -5863,11 +5880,11 @@
       <c r="K22" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="12" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B23" s="1" t="s">
         <v>655</v>
       </c>
@@ -5880,11 +5897,11 @@
       <c r="K23" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="12" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B24" s="1" t="s">
         <v>656</v>
       </c>
@@ -5897,11 +5914,11 @@
       <c r="K24" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="N24" s="17" t="s">
+      <c r="N24" s="12" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B25" s="1" t="s">
         <v>657</v>
       </c>
@@ -5914,11 +5931,11 @@
       <c r="K25" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="12" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B26" s="1" t="s">
         <v>765</v>
       </c>
@@ -5931,11 +5948,11 @@
       <c r="K26" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="12" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B27" s="1" t="s">
         <v>766</v>
       </c>
@@ -5948,11 +5965,11 @@
       <c r="K27" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="12" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B28" s="1" t="s">
         <v>759</v>
       </c>
@@ -5966,7 +5983,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B29" s="1" t="s">
         <v>760</v>
       </c>
@@ -5980,7 +5997,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B30" s="1" t="s">
         <v>761</v>
       </c>
@@ -5994,7 +6011,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B31" s="1" t="s">
         <v>762</v>
       </c>
@@ -6008,7 +6025,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B32" s="1" t="s">
         <v>764</v>
       </c>
@@ -6019,7 +6036,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B33" s="1" t="s">
         <v>258</v>
       </c>
@@ -6030,7 +6047,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B34" s="1" t="s">
         <v>259</v>
       </c>
@@ -6041,7 +6058,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B35" s="1" t="s">
         <v>260</v>
       </c>
@@ -6052,7 +6069,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B36" s="1" t="s">
         <v>261</v>
       </c>
@@ -6063,7 +6080,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B37" s="1" t="s">
         <v>262</v>
       </c>
@@ -6074,7 +6091,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B38" s="1" t="s">
         <v>263</v>
       </c>
@@ -6085,7 +6102,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B39" s="1" t="s">
         <v>264</v>
       </c>
@@ -6093,7 +6110,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B40" s="1" t="s">
         <v>265</v>
       </c>
@@ -6101,7 +6118,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B41" s="1" t="s">
         <v>658</v>
       </c>
@@ -6109,7 +6126,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B42" s="1" t="s">
         <v>659</v>
       </c>
@@ -6117,7 +6134,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B43" s="1" t="s">
         <v>660</v>
       </c>
@@ -6125,7 +6142,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B44" s="1" t="s">
         <v>266</v>
       </c>
@@ -6133,7 +6150,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B45" s="1" t="s">
         <v>661</v>
       </c>
@@ -6141,7 +6158,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B46" s="1" t="s">
         <v>662</v>
       </c>
@@ -6149,7 +6166,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B47" s="1" t="s">
         <v>663</v>
       </c>
@@ -6157,7 +6174,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B48" s="1" t="s">
         <v>267</v>
       </c>
@@ -6165,7 +6182,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B49" s="1" t="s">
         <v>664</v>
       </c>
@@ -6173,7 +6190,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B50" s="1" t="s">
         <v>665</v>
       </c>
@@ -6181,7 +6198,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B51" s="1" t="s">
         <v>763</v>
       </c>
@@ -6189,7 +6206,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B52" s="1" t="s">
         <v>268</v>
       </c>
@@ -6197,67 +6214,67 @@
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B53" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B54" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B55" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B56" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B57" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B58" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B59" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B60" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B61" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B62" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B63" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B64" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B65" s="1" t="s">
         <v>672</v>
       </c>
@@ -6275,82 +6292,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="24.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.6640625" style="1"/>
+    <col min="4" max="4" width="43.08984375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="24.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A3" s="5" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A6" s="18" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A7" s="5" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="18" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A11" s="21" t="s">
         <v>409</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6369,8 +6383,8 @@
         <v>810</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="30">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A12" s="22">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6379,72 +6393,72 @@
       <c r="C12" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="3" t="s">
         <v>809</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="30">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A13" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="30">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="30">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A15" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="30">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A16" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17" s="30">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A17" s="22">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A18" s="30">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A18" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A19" s="30">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A19" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A20" s="30">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A20" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A23" s="18" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A24" s="9">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A24" s="7">
         <v>44909</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 B8:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 B8:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Hold,Release immediately"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6459,129 +6473,120 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="48.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" style="1"/>
-    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="48.6640625" style="1"/>
+    <col min="1" max="1" width="48.6328125" style="1"/>
+    <col min="2" max="2" width="61.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="48.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A3" s="4" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="30">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A7" s="22">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="30">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="30">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A9" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A13" s="4" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A16" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="18" t="s">
         <v>599</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="30">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A17" s="22">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -6594,44 +6599,34 @@
         <v>813</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" s="30">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A18" s="22">
         <v>2</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="30">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A19" s="22">
         <v>3</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="1:4" ht="87.5" x14ac:dyDescent="0.6">
       <c r="A21" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="10" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A22" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="18" t="s">
         <v>726</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" s="30">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A23" s="22">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -6641,59 +6636,52 @@
         <v>727</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" s="30">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A24" s="22">
         <v>2</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" s="30">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A25" s="22">
         <v>3</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A28" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A29" s="4" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="52.2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" ht="52.5" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A31" s="20" t="s">
         <v>735</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="20" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="30">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A32" s="22">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -6703,89 +6691,74 @@
         <v>818</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="30">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A33" s="22">
         <v>2</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="30">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A34" s="22">
         <v>3</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A37" s="28" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="19" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="30">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A38" s="22">
         <v>1</v>
       </c>
       <c r="B38" s="1">
         <v>25477381</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39" s="30">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A39" s="22">
         <v>2</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A40" s="30">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A40" s="22">
         <v>3</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A44" s="30">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A44" s="22">
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -6801,96 +6774,82 @@
         <v>22129008</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="30">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A45" s="22">
         <v>2</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A46" s="30">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A46" s="22">
         <v>3</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A50" s="30">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A50" s="22">
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A51" s="30">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A51" s="22">
         <v>2</v>
       </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A52" s="30">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A52" s="22">
         <v>3</v>
       </c>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A54" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A55" s="27" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A55" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="19" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A56" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A57" s="30">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A56" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A57" s="22">
         <v>2</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A58" s="30">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A58" s="22">
         <v>3</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Case-Control,Case Set,Control Set,Tumor vs. Matched-Normal,Cohort,Longitudinal,Population,Family,Parent-Offspring Trios,Twin,Clinical Trial,Whole Genome Sequencing,Exome Sequencing,Transcriptome Sequencing,GWAS,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6902,7 +6861,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Admin!$A$2:$A$17</xm:f>
           </x14:formula1>
@@ -6918,25 +6877,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="24.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="12"/>
-    <col min="2" max="2" width="24.88671875" style="1"/>
-    <col min="3" max="3" width="24.88671875" style="18"/>
-    <col min="4" max="4" width="24.88671875" style="14"/>
-    <col min="5" max="6" width="24.88671875" style="1"/>
-    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.88671875" style="1"/>
+    <col min="1" max="1" width="24.90625" style="9"/>
+    <col min="2" max="2" width="24.90625" style="1"/>
+    <col min="3" max="4" width="24.90625" style="8"/>
+    <col min="5" max="6" width="24.90625" style="1"/>
+    <col min="7" max="7" width="49.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="24.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>439</v>
       </c>
@@ -6970,59 +6928,59 @@
       <c r="K1" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="19" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>825</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7050,17 +7008,17 @@
         <v>832</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>835</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7088,603 +7046,603 @@
         <v>837</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="30" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="30" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="30" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="30" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="30" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="30" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A14" s="30" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="30" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A16" s="30" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="30" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="30" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="30" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A19" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="30" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="30" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="30" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A23" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="30" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="30" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A25" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" s="30" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A26" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" s="30" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="30" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="30" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="30" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="30" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A31" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="30" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A32" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" s="30" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A33" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" s="30" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A34" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" s="30" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A35" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" s="30" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A36" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" s="30" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A37" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" s="30" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A38" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A39" s="30" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A39" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A40" s="30" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A40" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A41" s="30" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A41" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A42" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A43" s="30" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A43" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A44" s="30" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A44" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A45" s="30" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A46" s="30" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A46" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A47" s="30" t="s">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A47" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A48" s="30" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A48" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A49" s="30" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A49" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A50" s="30" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A50" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A51" s="30" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A51" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A52" s="30" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A52" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A53" s="30" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A53" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A54" s="30" t="s">
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A54" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A55" s="30" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A55" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A56" s="30" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A56" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A57" s="30" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A57" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A58" s="30" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A58" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A59" s="30" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A59" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A60" s="30" t="s">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A60" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A61" s="30" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A61" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A62" s="30" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A62" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A63" s="30" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A63" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A64" s="30" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A64" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="30" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A65" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="30" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A66" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="30" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A67" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A68" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="30" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A69" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="30" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A70" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A71" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="30" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A72" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A73" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="30" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A74" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="30" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A75" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="30" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A76" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A77" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="30" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A78" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="30" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A79" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="30" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A80" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="30" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A81" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="30" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A82" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="30" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A83" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="30" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A84" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="30" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A85" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="30" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A86" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="30" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A87" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="30" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A88" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="30" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A89" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="30" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A90" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="30" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A91" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="30" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A92" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="30" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A93" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="30" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A94" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="30" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A95" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="30" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A96" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="30" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A97" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="30" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A98" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="30" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A99" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="30" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A100" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="30" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A101" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="30" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A102" s="22" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7701,42 +7659,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="36.109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.08984375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="59.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>440</v>
       </c>
@@ -7758,10 +7716,10 @@
       <c r="G1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>557</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -7770,70 +7728,70 @@
       <c r="K1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="19" t="s">
         <v>571</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="18" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A3" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7882,8 +7840,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A4" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7932,8 +7890,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A5" s="22" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -7943,8 +7901,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A6" s="22" t="s">
         <v>119</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -7954,8 +7912,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A7" s="22" t="s">
         <v>120</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -7965,8 +7923,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A8" s="22" t="s">
         <v>121</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -7976,8 +7934,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A9" s="22" t="s">
         <v>122</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -7987,8 +7945,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A10" s="22" t="s">
         <v>123</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -7998,8 +7956,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A11" s="22" t="s">
         <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -8009,8 +7967,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A12" s="22" t="s">
         <v>125</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -8020,8 +7978,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A13" s="22" t="s">
         <v>126</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -8031,8 +7989,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A14" s="22" t="s">
         <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -8042,8 +8000,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A15" s="22" t="s">
         <v>128</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -8053,8 +8011,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
+      <c r="A16" s="22" t="s">
         <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -8064,8 +8022,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A17" s="22" t="s">
         <v>130</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -8075,8 +8033,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A18" s="22" t="s">
         <v>131</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -8086,8 +8044,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A19" s="22" t="s">
         <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -8097,8 +8055,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A20" s="22" t="s">
         <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -8108,8 +8066,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A21" s="22" t="s">
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -8119,8 +8077,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A22" s="22" t="s">
         <v>135</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -8130,8 +8088,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A23" s="22" t="s">
         <v>136</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -8141,8 +8099,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A24" s="22" t="s">
         <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -8152,8 +8110,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A25" s="22" t="s">
         <v>138</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -8163,8 +8121,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A26" s="22" t="s">
         <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -8174,8 +8132,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A27" s="22" t="s">
         <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -8185,8 +8143,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A28" s="22" t="s">
         <v>141</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -8196,8 +8154,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A29" s="22" t="s">
         <v>142</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -8207,8 +8165,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A30" s="30" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A30" s="22" t="s">
         <v>143</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -8218,8 +8176,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A31" s="22" t="s">
         <v>144</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -8229,8 +8187,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A32" s="22" t="s">
         <v>145</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -8240,8 +8198,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A33" s="22" t="s">
         <v>146</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -8251,8 +8209,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A34" s="22" t="s">
         <v>147</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -8262,8 +8220,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A35" s="22" t="s">
         <v>148</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -8273,8 +8231,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A36" s="22" t="s">
         <v>149</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -8284,8 +8242,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A37" s="30" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A37" s="22" t="s">
         <v>150</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -8295,8 +8253,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A38" s="22" t="s">
         <v>151</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -8306,8 +8264,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A39" s="30" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A39" s="22" t="s">
         <v>152</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -8317,8 +8275,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A40" s="22" t="s">
         <v>153</v>
       </c>
       <c r="N40" s="1" t="s">
@@ -8328,8 +8286,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A41" s="30" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A41" s="22" t="s">
         <v>154</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -8339,8 +8297,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A42" s="22" t="s">
         <v>155</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -8350,8 +8308,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A43" s="30" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A43" s="22" t="s">
         <v>156</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -8361,8 +8319,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A44" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -8372,8 +8330,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A45" s="30" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A45" s="22" t="s">
         <v>158</v>
       </c>
       <c r="N45" s="1" t="s">
@@ -8383,8 +8341,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A46" s="30" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A46" s="22" t="s">
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -8394,8 +8352,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A47" s="30" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A47" s="22" t="s">
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -8405,8 +8363,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A48" s="30" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A48" s="22" t="s">
         <v>161</v>
       </c>
       <c r="N48" s="1" t="s">
@@ -8416,8 +8374,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A49" s="30" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A49" s="22" t="s">
         <v>162</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -8427,8 +8385,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A50" s="30" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A50" s="22" t="s">
         <v>163</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -8438,8 +8396,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A51" s="30" t="s">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A51" s="22" t="s">
         <v>164</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -8449,8 +8407,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A52" s="30" t="s">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A52" s="22" t="s">
         <v>165</v>
       </c>
       <c r="N52" s="1" t="s">
@@ -8460,8 +8418,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A53" s="30" t="s">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A53" s="22" t="s">
         <v>166</v>
       </c>
       <c r="N53" s="1" t="s">
@@ -8471,8 +8429,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A54" s="30" t="s">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A54" s="22" t="s">
         <v>167</v>
       </c>
       <c r="N54" s="1" t="s">
@@ -8482,8 +8440,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A55" s="30" t="s">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A55" s="22" t="s">
         <v>168</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -8493,8 +8451,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A56" s="30" t="s">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A56" s="22" t="s">
         <v>169</v>
       </c>
       <c r="N56" s="1" t="s">
@@ -8504,8 +8462,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A57" s="30" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A57" s="22" t="s">
         <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -8515,8 +8473,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A58" s="30" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A58" s="22" t="s">
         <v>171</v>
       </c>
       <c r="N58" s="1" t="s">
@@ -8526,8 +8484,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A59" s="30" t="s">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A59" s="22" t="s">
         <v>172</v>
       </c>
       <c r="N59" s="1" t="s">
@@ -8537,8 +8495,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A60" s="30" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A60" s="22" t="s">
         <v>173</v>
       </c>
       <c r="N60" s="1" t="s">
@@ -8548,8 +8506,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A61" s="30" t="s">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A61" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N61" s="1" t="s">
@@ -8559,8 +8517,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A62" s="30" t="s">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A62" s="22" t="s">
         <v>175</v>
       </c>
       <c r="N62" s="1" t="s">
@@ -8570,8 +8528,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A63" s="30" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A63" s="22" t="s">
         <v>176</v>
       </c>
       <c r="N63" s="1" t="s">
@@ -8581,8 +8539,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A64" s="30" t="s">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A64" s="22" t="s">
         <v>177</v>
       </c>
       <c r="N64" s="1" t="s">
@@ -8592,8 +8550,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A65" s="30" t="s">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A65" s="22" t="s">
         <v>178</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -8603,8 +8561,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A66" s="30" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A66" s="22" t="s">
         <v>179</v>
       </c>
       <c r="N66" s="1" t="s">
@@ -8614,8 +8572,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A67" s="30" t="s">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A67" s="22" t="s">
         <v>180</v>
       </c>
       <c r="N67" s="1" t="s">
@@ -8625,8 +8583,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A68" s="22" t="s">
         <v>181</v>
       </c>
       <c r="N68" s="1" t="s">
@@ -8636,8 +8594,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A69" s="30" t="s">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A69" s="22" t="s">
         <v>182</v>
       </c>
       <c r="N69" s="1" t="s">
@@ -8647,8 +8605,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A70" s="30" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A70" s="22" t="s">
         <v>183</v>
       </c>
       <c r="N70" s="1" t="s">
@@ -8658,8 +8616,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A71" s="22" t="s">
         <v>184</v>
       </c>
       <c r="N71" s="1" t="s">
@@ -8669,8 +8627,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A72" s="30" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A72" s="22" t="s">
         <v>185</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -8680,8 +8638,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A73" s="22" t="s">
         <v>186</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -8691,8 +8649,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A74" s="30" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A74" s="22" t="s">
         <v>187</v>
       </c>
       <c r="N74" s="1" t="s">
@@ -8702,8 +8660,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A75" s="30" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A75" s="22" t="s">
         <v>188</v>
       </c>
       <c r="N75" s="1" t="s">
@@ -8713,8 +8671,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A76" s="30" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A76" s="22" t="s">
         <v>189</v>
       </c>
       <c r="N76" s="1" t="s">
@@ -8724,8 +8682,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A77" s="22" t="s">
         <v>190</v>
       </c>
       <c r="N77" s="1" t="s">
@@ -8735,8 +8693,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A78" s="30" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A78" s="22" t="s">
         <v>191</v>
       </c>
       <c r="N78" s="1" t="s">
@@ -8746,8 +8704,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A79" s="30" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A79" s="22" t="s">
         <v>192</v>
       </c>
       <c r="N79" s="1" t="s">
@@ -8757,8 +8715,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A80" s="30" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A80" s="22" t="s">
         <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
@@ -8768,8 +8726,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A81" s="30" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A81" s="22" t="s">
         <v>194</v>
       </c>
       <c r="N81" s="1" t="s">
@@ -8779,8 +8737,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A82" s="30" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A82" s="22" t="s">
         <v>195</v>
       </c>
       <c r="N82" s="1" t="s">
@@ -8790,8 +8748,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A83" s="30" t="s">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A83" s="22" t="s">
         <v>196</v>
       </c>
       <c r="N83" s="1" t="s">
@@ -8801,8 +8759,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A84" s="30" t="s">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A84" s="22" t="s">
         <v>197</v>
       </c>
       <c r="N84" s="1" t="s">
@@ -8812,8 +8770,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A85" s="30" t="s">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A85" s="22" t="s">
         <v>198</v>
       </c>
       <c r="N85" s="1" t="s">
@@ -8823,8 +8781,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A86" s="30" t="s">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A86" s="22" t="s">
         <v>199</v>
       </c>
       <c r="N86" s="1" t="s">
@@ -8834,8 +8792,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A87" s="30" t="s">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A87" s="22" t="s">
         <v>200</v>
       </c>
       <c r="N87" s="1" t="s">
@@ -8845,8 +8803,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A88" s="30" t="s">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A88" s="22" t="s">
         <v>201</v>
       </c>
       <c r="N88" s="1" t="s">
@@ -8856,8 +8814,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A89" s="30" t="s">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A89" s="22" t="s">
         <v>202</v>
       </c>
       <c r="N89" s="1" t="s">
@@ -8867,8 +8825,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A90" s="30" t="s">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A90" s="22" t="s">
         <v>203</v>
       </c>
       <c r="N90" s="1" t="s">
@@ -8878,8 +8836,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A91" s="30" t="s">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A91" s="22" t="s">
         <v>204</v>
       </c>
       <c r="N91" s="1" t="s">
@@ -8889,8 +8847,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A92" s="30" t="s">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A92" s="22" t="s">
         <v>205</v>
       </c>
       <c r="N92" s="1" t="s">
@@ -8900,8 +8858,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A93" s="30" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A93" s="22" t="s">
         <v>206</v>
       </c>
       <c r="N93" s="1" t="s">
@@ -8911,8 +8869,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A94" s="30" t="s">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A94" s="22" t="s">
         <v>207</v>
       </c>
       <c r="N94" s="1" t="s">
@@ -8922,8 +8880,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A95" s="30" t="s">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A95" s="22" t="s">
         <v>208</v>
       </c>
       <c r="N95" s="1" t="s">
@@ -8933,8 +8891,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A96" s="30" t="s">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A96" s="22" t="s">
         <v>209</v>
       </c>
       <c r="N96" s="1" t="s">
@@ -8944,8 +8902,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A97" s="30" t="s">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A97" s="22" t="s">
         <v>210</v>
       </c>
       <c r="N97" s="1" t="s">
@@ -8955,8 +8913,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A98" s="30" t="s">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A98" s="22" t="s">
         <v>211</v>
       </c>
       <c r="N98" s="1" t="s">
@@ -8966,8 +8924,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A99" s="30" t="s">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A99" s="22" t="s">
         <v>212</v>
       </c>
       <c r="N99" s="1" t="s">
@@ -8977,8 +8935,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A100" s="30" t="s">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A100" s="22" t="s">
         <v>213</v>
       </c>
       <c r="N100" s="1" t="s">
@@ -8988,8 +8946,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A101" s="30" t="s">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A101" s="22" t="s">
         <v>214</v>
       </c>
       <c r="N101" s="1" t="s">
@@ -8999,8 +8957,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A102" s="30" t="s">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.6">
+      <c r="A102" s="22" t="s">
         <v>215</v>
       </c>
       <c r="N102" s="1" t="s">
@@ -9020,49 +8978,49 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Admin!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Admin!$F$2:$F$3</xm:f>
           </x14:formula1>
           <xm:sqref>K3:K102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
             <xm:f>Admin!$G$2:$G$3</xm:f>
           </x14:formula1>
           <xm:sqref>P3:P102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000003000000}">
           <x14:formula1>
             <xm:f>Admin!$H$2:$H$4</xm:f>
           </x14:formula1>
           <xm:sqref>X4:X102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
           <x14:formula1>
             <xm:f>Admin!$D$2:$D$31</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
           <x14:formula1>
             <xm:f>Admin!$J$2:$J$6</xm:f>
           </x14:formula1>
           <xm:sqref>R3:R102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
           <x14:formula1>
             <xm:f>Admin!$B$2:$B$65</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H103</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
           <x14:formula1>
             <xm:f>Admin!$E$2:$E$38</xm:f>
           </x14:formula1>
@@ -9078,69 +9036,69 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="38" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="38" style="9" customWidth="1"/>
+    <col min="2" max="2" width="51.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="87.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.08984375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>751</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="19" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A3" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>843</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -9153,11 +9111,11 @@
         <v>844</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A4" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -9170,549 +9128,493 @@
         <v>844</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A5" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="30" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A6" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="30" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A7" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="30" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A8" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="30" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A9" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A10" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="30" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A11" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="30" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A12" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="30" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A13" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="30" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A14" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="30" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A15" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="30" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A16" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="30" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A17" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="30" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A18" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="30" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A19" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="30" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A20" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="30" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A21" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="30" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A22" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A23" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="30" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A24" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="30" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A25" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="30" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A26" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="30" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A27" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="30" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A28" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="30" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A29" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="30" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A30" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="30" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A31" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="30" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A32" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="30" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A33" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="30" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A34" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="30" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A35" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="30" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A36" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="30" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A37" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="30" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A38" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="30" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A39" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="30" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A40" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="30" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A41" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A42" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="30" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A43" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="30" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A44" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="30" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A45" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="30" t="s">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A46" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="30" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A47" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="30" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A48" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="30" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A49" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="30" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A50" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="30" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A51" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="30" t="s">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A52" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="30" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A53" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="30" t="s">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A54" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="30" t="s">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A55" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="30" t="s">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A56" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="30" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A57" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="30" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A58" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="30" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A59" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="30" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A60" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="30" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A61" s="22" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="30" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A62" s="22" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="30" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A63" s="22" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="30" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A64" s="22" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="30" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A65" s="22" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="30" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A66" s="22" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="30" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A67" s="22" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="30" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A68" s="22" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="30" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A69" s="22" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="30" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A70" s="22" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A71" s="22" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="30" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A72" s="22" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A73" s="22" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="30" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A74" s="22" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="30" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A75" s="22" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="30" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A76" s="22" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="30" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A77" s="22" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="30" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A78" s="22" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="30" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A79" s="22" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="30" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A80" s="22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="30" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A81" s="22" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="30" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A82" s="22" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="30" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A83" s="22" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="30" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A84" s="22" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="30" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A85" s="22" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="30" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A86" s="22" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="30" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A87" s="22" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="30" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A88" s="22" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="30" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A89" s="22" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="30" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A90" s="22" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="30" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A91" s="22" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="30" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A92" s="22" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="30" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A93" s="22" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="30" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A94" s="22" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="30" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A95" s="22" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="30" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A96" s="22" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="30" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A97" s="22" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="30" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A98" s="22" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="30" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A99" s="22" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="30" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A100" s="22" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="30" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A101" s="22" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="30" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="A102" s="22" t="s">
         <v>544</v>
       </c>
     </row>
@@ -9723,7 +9625,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Admin!$H$2:$H$5</xm:f>
           </x14:formula1>
@@ -9739,20 +9641,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="18.90625" defaultRowHeight="16.75" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="4"/>
-    <col min="2" max="16384" width="18.88671875" style="1"/>
+    <col min="1" max="16384" width="18.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>548</v>
       </c>
@@ -9774,32 +9675,31 @@
       <c r="G1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="13" t="s">
         <v>794</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -9811,77 +9711,77 @@
       <c r="T1" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="10" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="19" t="s">
         <v>570</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="18" t="s">
         <v>689</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="18" t="s">
         <v>690</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="19" t="s">
         <v>692</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="23" t="s">
         <v>790</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="23" t="s">
         <v>791</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="23" t="s">
         <v>792</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="19" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="22" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9921,49 +9821,49 @@
         <v>861</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="30" t="s">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="22" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="22" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="22" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="22" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="22" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="22" t="s">
         <v>351</v>
       </c>
     </row>
@@ -9974,49 +9874,49 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
             <xm:f>Admin!$H$2:$H$4</xm:f>
           </x14:formula1>
           <xm:sqref>I101:I102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
           <x14:formula1>
             <xm:f>Admin!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I34:I100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000002000000}">
           <x14:formula1>
             <xm:f>Admin!$J$2:$J$14</xm:f>
           </x14:formula1>
           <xm:sqref>L6:L12 L3:L4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000003000000}">
           <x14:formula1>
             <xm:f>Admin!$I$2:$I$15</xm:f>
           </x14:formula1>
           <xm:sqref>G6:G12 G3:G4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000004000000}">
           <x14:formula1>
             <xm:f>Admin!$K$2:$K$52</xm:f>
           </x14:formula1>
           <xm:sqref>I6:I12 I3:I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000005000000}">
           <x14:formula1>
             <xm:f>Admin!$O$2:$O$3</xm:f>
           </x14:formula1>
           <xm:sqref>Q6:Q12 Q3:Q4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000006000000}">
           <x14:formula1>
             <xm:f>Admin!$P$2</xm:f>
           </x14:formula1>
           <xm:sqref>T6:T12 T3:T4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000007000000}">
           <x14:formula1>
             <xm:f>Admin!$B$2:$B$65</xm:f>
           </x14:formula1>
@@ -10032,19 +9932,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="28.08984375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="28.109375" style="1"/>
+    <col min="1" max="16384" width="28.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>562</v>
       </c>
@@ -10067,31 +9967,31 @@
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="19" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A3" s="22" t="s">
         <v>364</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -10101,8 +10001,8 @@
         <v>847</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A4" s="22" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10113,7 +10013,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
           <x14:formula1>
             <xm:f>Admin!$L$2:$L$16</xm:f>
           </x14:formula1>
@@ -10129,21 +10029,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="17.33203125" style="1"/>
+    <col min="2" max="2" width="73.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>746</v>
       </c>
@@ -10151,15 +10051,15 @@
         <v>747</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A2" s="18" t="s">
         <v>744</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>863</v>
       </c>
@@ -10167,7 +10067,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>864</v>
       </c>
@@ -10175,7 +10075,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>846</v>
       </c>
